--- a/SampleData/sample.xlsx
+++ b/SampleData/sample.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2367438\OneDrive - Cognizant\Documents\AXA\Tasks\DataAnalysisDefectMessage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkawa\vscode-workspace\python_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB28E53-69C9-4CCD-8389-52648F32C424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF316009-7DF6-4C05-B4D1-11AE4E960F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3480" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web-Based" sheetId="1" r:id="rId1"/>
-    <sheet name="DB" sheetId="2" r:id="rId2"/>
-    <sheet name="ND" sheetId="3" r:id="rId3"/>
-    <sheet name="API" sheetId="4" r:id="rId4"/>
-    <sheet name="Others" sheetId="5" r:id="rId5"/>
+    <sheet name="UI" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="4" r:id="rId2"/>
+    <sheet name="DB" sheetId="2" r:id="rId3"/>
+    <sheet name="Others" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>word</t>
   </si>
@@ -103,39 +102,6 @@
     <t>action</t>
   </si>
   <si>
-    <t>performed</t>
-  </si>
-  <si>
-    <t>ファイル</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>カテゴリ選択</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>登録</t>
-  </si>
-  <si>
-    <t>clicked</t>
-  </si>
-  <si>
     <t>redirection</t>
   </si>
   <si>
@@ -203,18 +169,29 @@
   </si>
   <si>
     <t>properly</t>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,21 +499,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -544,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -552,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -560,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -568,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -576,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -584,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -592,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -600,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -608,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -616,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -625,11 +602,116 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7659E3-60BC-4011-96DF-D7F03D95D5B3}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE5AA17-7A4C-4F23-B9C0-6BA8ECE69842}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -637,9 +719,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -655,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -663,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -671,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -679,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -687,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -695,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -703,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -711,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -719,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -727,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -736,225 +818,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C9E2E7-C90F-447B-B1C5-E9C7EC92C8A6}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7659E3-60BC-4011-96DF-D7F03D95D5B3}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB737117-A6D0-410F-AD5F-75C7EFDE1BD3}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -962,9 +831,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,111 +841,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>